--- a/src/main/resources/data/events/Regular_Events_Choices.xlsx
+++ b/src/main/resources/data/events/Regular_Events_Choices.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\events\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCF6906-89F3-45CA-A057-A2A5F025B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="F/jnd/NJ5vElxRUpSLSuzvdSWS2s/G8zSJVOXnp+MqI="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -640,34 +644,197 @@
   </si>
   <si>
     <t>무대응으로 일관</t>
+  </si>
+  <si>
+    <t>보호종 서식지 해제 및 공사 즉시 재개</t>
+  </si>
+  <si>
+    <t>서식지 보전 및 ^생물권 복원 경사도^ 가이드라인 도입</t>
+  </si>
+  <si>
+    <t>도심 온열 기준 완화 및 전력 사용량 제한 해제</t>
+  </si>
+  <si>
+    <t>^연안 식생층 염분 축적율^ 관리 전환 및 그린쿨존 설치</t>
+  </si>
+  <si>
+    <t>환경세 동결 및 수도요금 인하 정책 추진</t>
+  </si>
+  <si>
+    <t>^지하수 수직분산 농도^ 실측 확대 및 수도사업 통합 검토</t>
+  </si>
+  <si>
+    <t>주민 환경 민원 대폭 축소 및 폐기물 수거 예외 확대</t>
+  </si>
+  <si>
+    <t>^도시 하수 모니터링 위성자료 공개^ 및 생활폐기물 투명제도 강화</t>
+  </si>
+  <si>
+    <t>‘환경실패’ 자성 토크쇼 출연 + 감성광고 캠페인 시작</t>
+  </si>
+  <si>
+    <t>^도시 조류서식 데이터 시각화 전시^ 개최 및 시민참여 모니터링 도입</t>
+  </si>
+  <si>
+    <t>청년 환경창업 박람회 개최</t>
+  </si>
+  <si>
+    <t>^도심 초본식물 재도입 기획안^ 단독 발표 및 그린벨트 내 확대 시행</t>
+  </si>
+  <si>
+    <t>세금 환급 일괄 시행 + 위원장 유튜브 해명 인터뷰</t>
+  </si>
+  <si>
+    <t>정책 반발 집단 면담 + 1회성 공청회 개최</t>
+  </si>
+  <si>
+    <t>^광역 오염저감 편차지수^ 보고서 단독 공개</t>
+  </si>
+  <si>
+    <t>지역별 SNS홍보비용 3배 증액 및 PR영상 공개</t>
+  </si>
+  <si>
+    <t>실측 데이터 기반 성과보고서 시민공개</t>
+  </si>
+  <si>
+    <t>^도시 온도 순환이탈률^ 분석 후 교실 냉방기기 제한</t>
+  </si>
+  <si>
+    <t>캠페인 일시 중단 및 대중 정서조사 실시</t>
+  </si>
+  <si>
+    <t>캠페인 유지 + 시민 참여율 공개 + 응원 SNS 광고 송출</t>
+  </si>
+  <si>
+    <t>^공감 반응 이탈지수^ 기반 캠페인 전면 폐지 + 심층 브리핑</t>
+  </si>
+  <si>
+    <t>환경복권 제도 도입 + 전국순회 보고회</t>
+  </si>
+  <si>
+    <t>^생태계 위기 다중지표^ 보고서 단독 발표 + 세미나 투어</t>
+  </si>
+  <si>
+    <t>환경복권 예산으로 친환경 전동차 충전소 설치 전환</t>
+  </si>
+  <si>
+    <t>시민 여론이 ‘드디어 결정 내렸다’며 폭등했습니다.</t>
+  </si>
+  <si>
+    <t>생태계 복원은 시작됐지만 시민은 ‘그린 독재’라 비난했습니다.</t>
+  </si>
+  <si>
+    <t>언론과 대중의 반응이 모두 긍정적으로 돌아섰습니다.</t>
+  </si>
+  <si>
+    <t>환경 단체는 환호했지만 시민 반응은 없었습니다.</t>
+  </si>
+  <si>
+    <t>전국 물가 인하 효과로 민심이 크게 돌아섰습니다.</t>
+  </si>
+  <si>
+    <t>물은 좋아졌지만, 사람들은 변화가 체감되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>불편이 줄자 시민 반응은 즉각 좋아졌습니다.</t>
+  </si>
+  <si>
+    <t>국제 NGO는 찬사했지만 시민 반응은 없었습니다.</t>
+  </si>
+  <si>
+    <t>사과와 눈물이 지지율을 끌어올렸습니다.</t>
+  </si>
+  <si>
+    <t>참여자는 많았지만 대중 여론에는 연결되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>눈에 보이는 ‘일’이 여론을 바꿨습니다.</t>
+  </si>
+  <si>
+    <t>학계에서는 찬사했지만 시민은 ‘보여주기 쇼’라 비꼬았습니다.</t>
+  </si>
+  <si>
+    <t>해명 콘텐츠가 바이럴되며 지지율은 급반등했습니다.</t>
+  </si>
+  <si>
+    <t>정책은 바뀌지 않았지만 ‘듣는다’는 인상은 전달되었습니다.</t>
+  </si>
+  <si>
+    <t>보고서의 신뢰도는 높았지만, 뉴스에서는 다뤄지지 않았습니다.</t>
+  </si>
+  <si>
+    <t>영상 속 미소는 있었지만, 실제 공기는 그대로였습니다.</t>
+  </si>
+  <si>
+    <t>과학자들은 고개를 끄덕였고 시민은 고개를 저었습니다.</t>
+  </si>
+  <si>
+    <t>냉방 제한이 불편해져 학생들과 학부모의 불만이 커졌습니다.</t>
+  </si>
+  <si>
+    <t>‘드디어 우리 목소리를 들었다’는 여론이 터졌습니다.</t>
+  </si>
+  <si>
+    <t>반감은 줄었지만, 진정성 논란은 끝나지 않았습니다.</t>
+  </si>
+  <si>
+    <t>내용은 알찼지만, 정서 피로는 해결되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>TV에 나온 위원장님의 모습에 시민 관심이 폭등했습니다.</t>
+  </si>
+  <si>
+    <t>지식인과 NGO는 환호했지만 시민은 외면했습니다.</t>
+  </si>
+  <si>
+    <t>전기차 이용자는 기뻐했지만, 예산 전환 논란이 계속되었습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,11 +842,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -693,40 +866,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{9BCCD374-FF97-4D1D-AA4F-CFC2B8F88DB5}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -916,26 +1094,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:A167"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="81.43"/>
-    <col customWidth="1" min="8" max="8" width="66.43"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="81.42578125" customWidth="1"/>
+    <col min="8" max="8" width="66.42578125" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,24 +1141,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -987,24 +1167,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="D3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1013,24 +1193,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>-6.0</v>
+        <v>-6</v>
       </c>
       <c r="E4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -1039,24 +1219,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E5" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -1065,24 +1245,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>-7.0</v>
+        <v>-7</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1091,24 +1271,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>-8.0</v>
+        <v>-8</v>
       </c>
       <c r="E7" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="3">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -1117,24 +1297,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F8" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
@@ -1143,24 +1323,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>-7.0</v>
+        <v>-7</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -1169,24 +1349,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
@@ -1195,24 +1375,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -1221,24 +1401,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E12" s="3">
-        <v>-7.0</v>
+        <v>-7</v>
       </c>
       <c r="F12" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
@@ -1247,24 +1427,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="D13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
@@ -1273,24 +1453,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>32</v>
@@ -1299,24 +1479,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>34</v>
@@ -1325,24 +1505,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>-8.0</v>
+        <v>-8</v>
       </c>
       <c r="D16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>36</v>
@@ -1351,24 +1531,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>38</v>
@@ -1377,24 +1557,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="D18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>40</v>
@@ -1403,24 +1583,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F19" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>41</v>
@@ -1429,24 +1609,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>-6.0</v>
+        <v>-6</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>42</v>
@@ -1455,24 +1635,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
@@ -1481,24 +1661,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>44</v>
@@ -1507,24 +1687,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="E23" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>46</v>
@@ -1533,24 +1713,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>48</v>
@@ -1559,24 +1739,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="D25" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>50</v>
@@ -1585,24 +1765,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>52</v>
@@ -1611,24 +1791,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>54</v>
@@ -1637,24 +1817,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>56</v>
@@ -1663,24 +1843,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1">
       <c r="A29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>58</v>
@@ -1689,24 +1869,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>60</v>
@@ -1715,24 +1895,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>62</v>
@@ -1741,24 +1921,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>-8.0</v>
+        <v>-8</v>
       </c>
       <c r="D32" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>64</v>
@@ -1767,24 +1947,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" spans="1:8" ht="16.5" customHeight="1">
       <c r="A33" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>66</v>
@@ -1793,24 +1973,24 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F34" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>68</v>
@@ -1819,24 +1999,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" ht="16.5" customHeight="1">
+    <row r="35" spans="1:8" ht="16.5" customHeight="1">
       <c r="A35" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>70</v>
@@ -1845,24 +2025,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2">
-        <v>-6.0</v>
+        <v>-6</v>
       </c>
       <c r="E36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>72</v>
@@ -1871,24 +2051,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>74</v>
@@ -1897,24 +2077,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>76</v>
@@ -1923,24 +2103,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1">
+    <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C39" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>78</v>
@@ -1949,24 +2129,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" ht="16.5" customHeight="1">
+    <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>80</v>
@@ -1975,24 +2155,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="D41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>82</v>
@@ -2001,24 +2181,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>84</v>
@@ -2027,24 +2207,24 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
       <c r="A43" s="2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C43" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>86</v>
@@ -2053,24 +2233,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" spans="1:8" ht="16.5" customHeight="1">
       <c r="A44" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>88</v>
@@ -2079,24 +2259,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" spans="1:8" ht="16.5" customHeight="1">
       <c r="A45" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>90</v>
@@ -2105,24 +2285,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1">
+    <row r="46" spans="1:8" ht="16.5" customHeight="1">
       <c r="A46" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>92</v>
@@ -2131,24 +2311,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" ht="16.5" customHeight="1">
+    <row r="47" spans="1:8" ht="16.5" customHeight="1">
       <c r="A47" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>94</v>
@@ -2157,24 +2337,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" spans="1:8" ht="16.5" customHeight="1">
       <c r="A48" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>96</v>
@@ -2183,24 +2363,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>98</v>
@@ -2209,24 +2389,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>100</v>
@@ -2235,24 +2415,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F51" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>102</v>
@@ -2261,24 +2441,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>104</v>
@@ -2287,24 +2467,24 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" ht="16.5" customHeight="1">
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="2">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>106</v>
@@ -2313,24 +2493,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E54" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>108</v>
@@ -2339,24 +2519,24 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="2">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>110</v>
@@ -2365,24 +2545,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="2">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>112</v>
@@ -2391,24 +2571,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
       <c r="A57" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>114</v>
@@ -2417,24 +2597,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="2">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C58" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>116</v>
@@ -2443,24 +2623,24 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="2">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>118</v>
@@ -2469,24 +2649,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="60" spans="1:8" ht="16.5" customHeight="1">
       <c r="A60" s="2">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C60" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>120</v>
@@ -2495,24 +2675,24 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
       <c r="A61" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C61" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F61" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>122</v>
@@ -2521,24 +2701,24 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" ht="16.5" customHeight="1">
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
       <c r="A62" s="2">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C62" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>124</v>
@@ -2547,24 +2727,24 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
       <c r="A63" s="2">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C63" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>126</v>
@@ -2573,24 +2753,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
       <c r="A64" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F64" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>128</v>
@@ -2599,24 +2779,24 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>130</v>
@@ -2625,24 +2805,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C66" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>132</v>
@@ -2651,24 +2831,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
+    <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="2">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C67" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>134</v>
@@ -2677,24 +2857,24 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" ht="16.5" customHeight="1">
+    <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>136</v>
@@ -2703,24 +2883,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" ht="16.5" customHeight="1">
+    <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F69" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>138</v>
@@ -2729,24 +2909,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C70" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>140</v>
@@ -2755,24 +2935,24 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C71" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>142</v>
@@ -2781,24 +2961,24 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" ht="16.5" customHeight="1">
+    <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>144</v>
@@ -2807,24 +2987,24 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" ht="16.5" customHeight="1">
+    <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E73" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F73" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>146</v>
@@ -2833,24 +3013,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
+    <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="2">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D74" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E74" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>148</v>
@@ -2859,24 +3039,24 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" ht="16.5" customHeight="1">
+    <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>150</v>
@@ -2885,24 +3065,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" ht="16.5" customHeight="1">
+    <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F76" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>152</v>
@@ -2911,24 +3091,24 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" ht="16.5" customHeight="1">
+    <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F77" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>154</v>
@@ -2937,24 +3117,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" ht="16.5" customHeight="1">
+    <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E78" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>156</v>
@@ -2963,24 +3143,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" ht="16.5" customHeight="1">
+    <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D79" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F79" s="3">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>158</v>
@@ -2989,24 +3169,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" ht="16.5" customHeight="1">
+    <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="2">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E80" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F80" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>160</v>
@@ -3015,24 +3195,24 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" ht="16.5" customHeight="1">
+    <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D81" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E81" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F81" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>162</v>
@@ -3041,24 +3221,24 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" ht="16.5" customHeight="1">
+    <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="2">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>164</v>
@@ -3067,24 +3247,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" ht="16.5" customHeight="1">
+    <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D83" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E83" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F83" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>166</v>
@@ -3093,24 +3273,24 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" ht="16.5" customHeight="1">
+    <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="2">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E84" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F84" s="3">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>168</v>
@@ -3119,24 +3299,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" ht="16.5" customHeight="1">
+    <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D85" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E85" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F85" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>170</v>
@@ -3145,24 +3325,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" ht="16.5" customHeight="1">
+    <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D86" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E86" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F86" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>172</v>
@@ -3171,24 +3351,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" ht="16.5" customHeight="1">
+    <row r="87" spans="1:8" ht="16.5" customHeight="1">
       <c r="A87" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E87" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F87" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>174</v>
@@ -3197,24 +3377,24 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" ht="16.5" customHeight="1">
+    <row r="88" spans="1:8" ht="16.5" customHeight="1">
       <c r="A88" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D88" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F88" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>176</v>
@@ -3223,24 +3403,24 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" ht="16.5" customHeight="1">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1">
       <c r="A89" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>178</v>
@@ -3249,24 +3429,24 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" ht="16.5" customHeight="1">
+    <row r="90" spans="1:8" ht="16.5" customHeight="1">
       <c r="A90" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D90" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E90" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F90" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>180</v>
@@ -3275,24 +3455,24 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" ht="16.5" customHeight="1">
+    <row r="91" spans="1:8" ht="16.5" customHeight="1">
       <c r="A91" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D91" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>182</v>
@@ -3301,24 +3481,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" ht="16.5" customHeight="1">
+    <row r="92" spans="1:8" ht="16.5" customHeight="1">
       <c r="A92" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D92" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E92" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F92" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>184</v>
@@ -3327,24 +3507,24 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" ht="16.5" customHeight="1">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1">
       <c r="A93" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D93" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>186</v>
@@ -3353,24 +3533,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" ht="16.5" customHeight="1">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1">
       <c r="A94" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D94" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F94" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>188</v>
@@ -3379,24 +3559,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" ht="16.5" customHeight="1">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1">
       <c r="A95" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E95" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F95" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>190</v>
@@ -3405,24 +3585,24 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" ht="16.5" customHeight="1">
+    <row r="96" spans="1:8" ht="16.5" customHeight="1">
       <c r="A96" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D96" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>192</v>
@@ -3431,24 +3611,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" ht="16.5" customHeight="1">
+    <row r="97" spans="1:8" ht="16.5" customHeight="1">
       <c r="A97" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D97" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F97" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>194</v>
@@ -3457,24 +3637,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" ht="16.5" customHeight="1">
+    <row r="98" spans="1:8" ht="16.5" customHeight="1">
       <c r="A98" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D98" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E98" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F98" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>196</v>
@@ -3483,24 +3663,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" ht="16.5" customHeight="1">
+    <row r="99" spans="1:8" ht="16.5" customHeight="1">
       <c r="A99" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D99" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E99" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F99" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>198</v>
@@ -3509,24 +3689,24 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" ht="16.5" customHeight="1">
+    <row r="100" spans="1:8" ht="16.5" customHeight="1">
       <c r="A100" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D100" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F100" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>200</v>
@@ -3535,24 +3715,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" ht="16.5" customHeight="1">
+    <row r="101" spans="1:8" ht="16.5" customHeight="1">
       <c r="A101" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D101" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>202</v>
@@ -3561,24 +3741,24 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102" ht="16.5" customHeight="1">
+    <row r="102" spans="1:8" ht="16.5" customHeight="1">
       <c r="A102" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C102" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D102" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F102" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>204</v>
@@ -3587,24 +3767,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" ht="16.5" customHeight="1">
+    <row r="103" spans="1:8" ht="16.5" customHeight="1">
       <c r="A103" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C103" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D103" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E103" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F103" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>206</v>
@@ -3613,24 +3793,24 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" ht="16.5" customHeight="1">
+    <row r="104" spans="1:8" ht="16.5" customHeight="1">
       <c r="A104" s="5">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C104" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D104" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E104" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F104" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>128</v>
@@ -3639,24 +3819,24 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" ht="16.5" customHeight="1">
+    <row r="105" spans="1:8" ht="16.5" customHeight="1">
       <c r="A105" s="5">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F105" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>130</v>
@@ -3665,24 +3845,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" ht="16.5" customHeight="1">
+    <row r="106" spans="1:8" ht="16.5" customHeight="1">
       <c r="A106" s="5">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C106" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D106" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E106" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F106" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>132</v>
@@ -3691,24 +3871,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" ht="16.5" customHeight="1">
+    <row r="107" spans="1:8" ht="16.5" customHeight="1">
       <c r="A107" s="5">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C107" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D107" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E107" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F107" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>134</v>
@@ -3717,24 +3897,24 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" ht="16.5" customHeight="1">
+    <row r="108" spans="1:8" ht="16.5" customHeight="1">
       <c r="A108" s="5">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C108" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D108" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E108" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F108" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>136</v>
@@ -3743,24 +3923,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" ht="16.5" customHeight="1">
+    <row r="109" spans="1:8" ht="16.5" customHeight="1">
       <c r="A109" s="5">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C109" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D109" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E109" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F109" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>138</v>
@@ -3769,24 +3949,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" ht="16.5" customHeight="1">
+    <row r="110" spans="1:8" ht="16.5" customHeight="1">
       <c r="A110" s="5">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C110" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D110" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E110" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F110" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>140</v>
@@ -3795,24 +3975,24 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" ht="16.5" customHeight="1">
+    <row r="111" spans="1:8" ht="16.5" customHeight="1">
       <c r="A111" s="5">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C111" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E111" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F111" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>142</v>
@@ -3821,24 +4001,24 @@
         <v>143</v>
       </c>
     </row>
-    <row r="112" ht="16.5" customHeight="1">
+    <row r="112" spans="1:8" ht="16.5" customHeight="1">
       <c r="A112" s="5">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C112" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D112" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E112" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F112" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>144</v>
@@ -3847,24 +4027,24 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" ht="16.5" customHeight="1">
+    <row r="113" spans="1:8" ht="16.5" customHeight="1">
       <c r="A113" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C113" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D113" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E113" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F113" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>146</v>
@@ -3873,24 +4053,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" ht="16.5" customHeight="1">
+    <row r="114" spans="1:8" ht="16.5" customHeight="1">
       <c r="A114" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D114" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E114" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>148</v>
@@ -3899,24 +4079,24 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
+    <row r="115" spans="1:8" ht="16.5" customHeight="1">
       <c r="A115" s="5">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F115" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>150</v>
@@ -3925,24 +4105,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" ht="16.5" customHeight="1">
+    <row r="116" spans="1:8" ht="16.5" customHeight="1">
       <c r="A116" s="5">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C116" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D116" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E116" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F116" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>152</v>
@@ -3951,24 +4131,24 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" ht="16.5" customHeight="1">
+    <row r="117" spans="1:8" ht="16.5" customHeight="1">
       <c r="A117" s="5">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C117" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D117" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E117" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F117" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>154</v>
@@ -3977,24 +4157,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" ht="16.5" customHeight="1">
+    <row r="118" spans="1:8" ht="16.5" customHeight="1">
       <c r="A118" s="5">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C118" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D118" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E118" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F118" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>156</v>
@@ -4003,24 +4183,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" ht="16.5" customHeight="1">
+    <row r="119" spans="1:8" ht="16.5" customHeight="1">
       <c r="A119" s="5">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C119" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D119" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E119" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F119" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>158</v>
@@ -4029,24 +4209,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" ht="16.5" customHeight="1">
+    <row r="120" spans="1:8" ht="16.5" customHeight="1">
       <c r="A120" s="5">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C120" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D120" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E120" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F120" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>160</v>
@@ -4055,24 +4235,24 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" ht="16.5" customHeight="1">
+    <row r="121" spans="1:8" ht="16.5" customHeight="1">
       <c r="A121" s="5">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C121" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D121" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E121" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F121" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>162</v>
@@ -4081,24 +4261,24 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" ht="16.5" customHeight="1">
+    <row r="122" spans="1:8" ht="16.5" customHeight="1">
       <c r="A122" s="5">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D122" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F122" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>164</v>
@@ -4107,24 +4287,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" ht="16.5" customHeight="1">
+    <row r="123" spans="1:8" ht="16.5" customHeight="1">
       <c r="A123" s="5">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C123" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D123" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E123" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F123" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>166</v>
@@ -4133,24 +4313,24 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" ht="16.5" customHeight="1">
+    <row r="124" spans="1:8" ht="16.5" customHeight="1">
       <c r="A124" s="5">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C124" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D124" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E124" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F124" s="5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>168</v>
@@ -4159,24 +4339,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" ht="16.5" customHeight="1">
+    <row r="125" spans="1:8" ht="16.5" customHeight="1">
       <c r="A125" s="5">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C125" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D125" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E125" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F125" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>170</v>
@@ -4185,24 +4365,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" ht="16.5" customHeight="1">
+    <row r="126" spans="1:8" ht="16.5" customHeight="1">
       <c r="A126" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C126" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D126" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E126" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F126" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>172</v>
@@ -4211,24 +4391,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" ht="16.5" customHeight="1">
+    <row r="127" spans="1:8" ht="16.5" customHeight="1">
       <c r="A127" s="5">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C127" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D127" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E127" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F127" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>174</v>
@@ -4237,24 +4417,24 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" ht="16.5" customHeight="1">
+    <row r="128" spans="1:8" ht="16.5" customHeight="1">
       <c r="A128" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D128" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F128" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>176</v>
@@ -4263,24 +4443,24 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
+    <row r="129" spans="1:8" ht="16.5" customHeight="1">
       <c r="A129" s="5">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C129" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D129" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E129" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F129" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>178</v>
@@ -4289,24 +4469,24 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" ht="16.5" customHeight="1">
+    <row r="130" spans="1:8" ht="16.5" customHeight="1">
       <c r="A130" s="5">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C130" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E130" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F130" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>180</v>
@@ -4315,24 +4495,24 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" ht="16.5" customHeight="1">
+    <row r="131" spans="1:8" ht="16.5" customHeight="1">
       <c r="A131" s="5">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C131" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D131" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E131" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F131" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>182</v>
@@ -4341,24 +4521,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="132" ht="16.5" customHeight="1">
+    <row r="132" spans="1:8" ht="16.5" customHeight="1">
       <c r="A132" s="5">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C132" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D132" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E132" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F132" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>184</v>
@@ -4367,24 +4547,24 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" ht="16.5" customHeight="1">
+    <row r="133" spans="1:8" ht="16.5" customHeight="1">
       <c r="A133" s="5">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C133" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E133" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F133" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>186</v>
@@ -4393,24 +4573,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" ht="16.5" customHeight="1">
+    <row r="134" spans="1:8" ht="16.5" customHeight="1">
       <c r="A134" s="5">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C134" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D134" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E134" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F134" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>188</v>
@@ -4419,24 +4599,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" ht="16.5" customHeight="1">
+    <row r="135" spans="1:8" ht="16.5" customHeight="1">
       <c r="A135" s="5">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C135" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D135" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E135" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F135" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>190</v>
@@ -4445,24 +4625,24 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" ht="16.5" customHeight="1">
+    <row r="136" spans="1:8" ht="16.5" customHeight="1">
       <c r="A136" s="5">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C136" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D136" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E136" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F136" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>192</v>
@@ -4471,24 +4651,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" ht="16.5" customHeight="1">
+    <row r="137" spans="1:8" ht="16.5" customHeight="1">
       <c r="A137" s="5">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C137" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D137" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E137" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F137" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>194</v>
@@ -4497,24 +4677,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" ht="16.5" customHeight="1">
+    <row r="138" spans="1:8" ht="16.5" customHeight="1">
       <c r="A138" s="5">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C138" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D138" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E138" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F138" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>196</v>
@@ -4523,24 +4703,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" ht="16.5" customHeight="1">
+    <row r="139" spans="1:8" ht="16.5" customHeight="1">
       <c r="A139" s="5">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C139" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D139" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E139" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F139" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>198</v>
@@ -4549,24 +4729,24 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" ht="16.5" customHeight="1">
+    <row r="140" spans="1:8" ht="16.5" customHeight="1">
       <c r="A140" s="5">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C140" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D140" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E140" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F140" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>200</v>
@@ -4575,24 +4755,24 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" ht="16.5" customHeight="1">
+    <row r="141" spans="1:8" ht="16.5" customHeight="1">
       <c r="A141" s="5">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C141" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D141" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E141" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F141" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>202</v>
@@ -4601,24 +4781,24 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" ht="16.5" customHeight="1">
+    <row r="142" spans="1:8" ht="16.5" customHeight="1">
       <c r="A142" s="5">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D142" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E142" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F142" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>204</v>
@@ -4627,24 +4807,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" ht="16.5" customHeight="1">
+    <row r="143" spans="1:8" ht="16.5" customHeight="1">
       <c r="A143" s="5">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C143" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D143" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="E143" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F143" s="4">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>206</v>
@@ -4653,39 +4833,639 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="144" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A144" s="5">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6">
+        <v>41</v>
+      </c>
+      <c r="C144" s="8">
+        <v>-4</v>
+      </c>
+      <c r="D144" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E144" s="8">
+        <v>-6</v>
+      </c>
+      <c r="F144" s="8">
+        <v>8</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A145" s="5">
+        <v>144</v>
+      </c>
+      <c r="B145" s="6">
+        <v>41</v>
+      </c>
+      <c r="C145" s="8">
+        <v>1</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2</v>
+      </c>
+      <c r="E145" s="8">
+        <v>6</v>
+      </c>
+      <c r="F145" s="8">
+        <v>-7</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A146" s="5">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6">
+        <v>42</v>
+      </c>
+      <c r="C146" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D146" s="8">
+        <v>-2</v>
+      </c>
+      <c r="E146" s="8">
+        <v>-5</v>
+      </c>
+      <c r="F146" s="8">
+        <v>8</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A147" s="5">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6">
+        <v>42</v>
+      </c>
+      <c r="C147" s="8">
+        <v>2</v>
+      </c>
+      <c r="D147" s="8">
+        <v>1</v>
+      </c>
+      <c r="E147" s="8">
+        <v>6</v>
+      </c>
+      <c r="F147" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A148" s="5">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6">
+        <v>43</v>
+      </c>
+      <c r="C148" s="8">
+        <v>-2</v>
+      </c>
+      <c r="D148" s="8">
+        <v>-4</v>
+      </c>
+      <c r="E148" s="8">
+        <v>-5</v>
+      </c>
+      <c r="F148" s="8">
+        <v>7</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A149" s="5">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6">
+        <v>43</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0</v>
+      </c>
+      <c r="D149" s="8">
+        <v>6</v>
+      </c>
+      <c r="E149" s="8">
+        <v>1</v>
+      </c>
+      <c r="F149" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A150" s="5">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6">
+        <v>44</v>
+      </c>
+      <c r="C150" s="8">
+        <v>-5</v>
+      </c>
+      <c r="D150" s="8">
+        <v>-4</v>
+      </c>
+      <c r="E150" s="8">
+        <v>-3</v>
+      </c>
+      <c r="F150" s="8">
+        <v>7</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A151" s="5">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6">
+        <v>44</v>
+      </c>
+      <c r="C151" s="8">
+        <v>1</v>
+      </c>
+      <c r="D151" s="8">
+        <v>7</v>
+      </c>
+      <c r="E151" s="8">
+        <v>1</v>
+      </c>
+      <c r="F151" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A152" s="5">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6">
+        <v>45</v>
+      </c>
+      <c r="C152" s="8">
+        <v>-4</v>
+      </c>
+      <c r="D152" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E152" s="8">
+        <v>-5</v>
+      </c>
+      <c r="F152" s="8">
+        <v>8</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A153" s="5">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6">
+        <v>45</v>
+      </c>
+      <c r="C153" s="8">
+        <v>2</v>
+      </c>
+      <c r="D153" s="8">
+        <v>0</v>
+      </c>
+      <c r="E153" s="8">
+        <v>6</v>
+      </c>
+      <c r="F153" s="8">
+        <v>-7</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A154" s="5">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6">
+        <v>46</v>
+      </c>
+      <c r="C154" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D154" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E154" s="8">
+        <v>-3</v>
+      </c>
+      <c r="F154" s="8">
+        <v>7</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A155" s="5">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6">
+        <v>46</v>
+      </c>
+      <c r="C155" s="8">
+        <v>6</v>
+      </c>
+      <c r="D155" s="8">
+        <v>0</v>
+      </c>
+      <c r="E155" s="8">
+        <v>2</v>
+      </c>
+      <c r="F155" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A156" s="5">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6">
+        <v>47</v>
+      </c>
+      <c r="C156" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D156" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E156" s="8">
+        <v>-4</v>
+      </c>
+      <c r="F156" s="8">
+        <v>8</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A157" s="5">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6">
+        <v>47</v>
+      </c>
+      <c r="C157" s="8">
+        <v>0</v>
+      </c>
+      <c r="D157" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="8">
+        <v>0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>4</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A158" s="5">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6">
+        <v>47</v>
+      </c>
+      <c r="C158" s="8">
+        <v>6</v>
+      </c>
+      <c r="D158" s="8">
+        <v>1</v>
+      </c>
+      <c r="E158" s="8">
+        <v>1</v>
+      </c>
+      <c r="F158" s="8">
+        <v>-7</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6">
+        <v>48</v>
+      </c>
+      <c r="C159" s="8">
+        <v>-4</v>
+      </c>
+      <c r="D159" s="8">
+        <v>-4</v>
+      </c>
+      <c r="E159" s="8">
+        <v>-3</v>
+      </c>
+      <c r="F159" s="8">
+        <v>7</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A160" s="5">
+        <v>159</v>
+      </c>
+      <c r="B160" s="6">
+        <v>48</v>
+      </c>
+      <c r="C160" s="8">
+        <v>1</v>
+      </c>
+      <c r="D160" s="8">
+        <v>1</v>
+      </c>
+      <c r="E160" s="8">
+        <v>2</v>
+      </c>
+      <c r="F160" s="8">
+        <v>-5</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A161" s="5">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6">
+        <v>48</v>
+      </c>
+      <c r="C161" s="8">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
+        <v>1</v>
+      </c>
+      <c r="F161" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A162" s="5">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6">
+        <v>49</v>
+      </c>
+      <c r="C162" s="8">
+        <v>-2</v>
+      </c>
+      <c r="D162" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E162" s="8">
+        <v>-4</v>
+      </c>
+      <c r="F162" s="8">
+        <v>8</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A163" s="5">
+        <v>162</v>
+      </c>
+      <c r="B163" s="6">
+        <v>49</v>
+      </c>
+      <c r="C163" s="8">
+        <v>0</v>
+      </c>
+      <c r="D163" s="8">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8">
+        <v>1</v>
+      </c>
+      <c r="F163" s="8">
+        <v>2</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A164" s="5">
+        <v>163</v>
+      </c>
+      <c r="B164" s="6">
+        <v>49</v>
+      </c>
+      <c r="C164" s="8">
+        <v>4</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2</v>
+      </c>
+      <c r="E164" s="8">
+        <v>3</v>
+      </c>
+      <c r="F164" s="8">
+        <v>-6</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A165" s="5">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6">
+        <v>50</v>
+      </c>
+      <c r="C165" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D165" s="8">
+        <v>-3</v>
+      </c>
+      <c r="E165" s="8">
+        <v>-4</v>
+      </c>
+      <c r="F165" s="8">
+        <v>8</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A166" s="5">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6">
+        <v>50</v>
+      </c>
+      <c r="C166" s="8">
+        <v>5</v>
+      </c>
+      <c r="D166" s="8">
+        <v>2</v>
+      </c>
+      <c r="E166" s="8">
+        <v>2</v>
+      </c>
+      <c r="F166" s="8">
+        <v>-7</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A167" s="5">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6">
+        <v>50</v>
+      </c>
+      <c r="C167" s="8">
+        <v>3</v>
+      </c>
+      <c r="D167" s="8">
+        <v>0</v>
+      </c>
+      <c r="E167" s="8">
+        <v>2</v>
+      </c>
+      <c r="F167" s="8">
+        <v>-3</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="169" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="170" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="171" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="172" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="173" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="174" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="175" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="176" spans="1:8" ht="16.5" customHeight="1"/>
     <row r="177" ht="16.5" customHeight="1"/>
     <row r="178" ht="16.5" customHeight="1"/>
     <row r="179" ht="16.5" customHeight="1"/>
@@ -5511,9 +6291,8 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>